--- a/medicine/Psychotrope/Blanquette_de_veau/Blanquette_de_veau.xlsx
+++ b/medicine/Psychotrope/Blanquette_de_veau/Blanquette_de_veau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La blanquette, ou blanquette de veau ou blanquette de veau à l'ancienne, est une recette de cuisine traditionnelle de cuisine française, à base  de viande de veau cuite dans un bouillon avec carotte, poireau, oignon et bouquet garni, liée en sauce blanche (roux) et aux champignons de Paris[1].
+La blanquette, ou blanquette de veau ou blanquette de veau à l'ancienne, est une recette de cuisine traditionnelle de cuisine française, à base  de viande de veau cuite dans un bouillon avec carotte, poireau, oignon et bouquet garni, liée en sauce blanche (roux) et aux champignons de Paris.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « blanquette » vient de la couleur blanche de la sauce blanche. Toutes les viandes blanches (dinde, poulet, volaille, lapin, porc), mais aussi agneau, ou poisson (lotte, daurade), peuvent se préparer « en blanquette » bien que celle de veau reste une des références culinaires de la gastronomie française.
 </t>
